--- a/docs/TCMP_SD_TD_JOBS.xlsx
+++ b/docs/TCMP_SD_TD_JOBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\sakai\OneDrive\Documents\le_json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{752AC616-FD9F-4BAF-88A5-7E0C94558D76}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{EABB9863-A73E-4B28-A9D6-0DDA2628C039}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{752AC616-FD9F-4BAF-88A5-7E0C94558D76}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{25575DB4-AE71-4D2A-B06B-B2770748154D}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,14 +871,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -895,15 +901,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1318,7 +1315,7 @@
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1463,29 +1460,29 @@
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="30"/>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="31">
@@ -1505,9 +1502,9 @@
       <c r="G7" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="L7" s="10" t="str">
         <f t="shared" ref="L7:L36" si="0">IF(D7="",IF(C7="","",C7),C7&amp;"("&amp;D7&amp;")")</f>
         <v>serial</v>
@@ -1567,11 +1564,11 @@
       <c r="G8" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
       <c r="L8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>numeric</v>
@@ -1639,11 +1636,11 @@
         <v>79</v>
       </c>
       <c r="G9" s="40"/>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
       <c r="L9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>varchar(2000)</v>
@@ -3037,11 +3034,11 @@
         <v>79</v>
       </c>
       <c r="G29" s="40"/>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
       <c r="L29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>varchar(2000)</v>
@@ -3107,11 +3104,11 @@
       <c r="E30" s="38"/>
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
       <c r="L30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>varchar(6)</v>
@@ -3177,11 +3174,11 @@
         <v>79</v>
       </c>
       <c r="G31" s="40"/>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
       <c r="L31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>timestamp</v>
@@ -3317,11 +3314,11 @@
       <c r="E33" s="38"/>
       <c r="F33" s="39"/>
       <c r="G33" s="40"/>
-      <c r="H33" s="54" t="s">
+      <c r="H33" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
       <c r="L33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>timestamp</v>
@@ -3387,11 +3384,11 @@
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
-      <c r="H34" s="54" t="s">
+      <c r="H34" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
       <c r="L34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>varchar(20)</v>
@@ -3455,11 +3452,11 @@
       <c r="E35" s="38"/>
       <c r="F35" s="39"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
       <c r="L35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>timestamp</v>
@@ -3525,11 +3522,11 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39"/>
       <c r="G36" s="40"/>
-      <c r="H36" s="54" t="s">
+      <c r="H36" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
       <c r="L36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>varchar(20)</v>
@@ -3587,9 +3584,9 @@
       <c r="E37" s="38"/>
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
       <c r="L37" s="10" t="str">
         <f>IF(D37="",IF(C37="","",C37),C37&amp;"("&amp;D37&amp;")")</f>
         <v/>
@@ -3647,9 +3644,9 @@
       <c r="E38" s="38"/>
       <c r="F38" s="39"/>
       <c r="G38" s="40"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
       <c r="L38" s="10" t="str">
         <f t="shared" ref="L38:L63" si="12">IF(D38="",IF(C38="","",C38),C38&amp;"("&amp;D38&amp;")")</f>
         <v/>
@@ -3707,9 +3704,9 @@
       <c r="E39" s="38"/>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
       <c r="L39" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3719,7 +3716,7 @@
         <v/>
       </c>
       <c r="N39" s="10" t="str">
-        <f t="shared" ref="N39:N70" si="13">IF(B39="","",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(COLUMN_DEF,"{{column_id}}",B39),"{{type}}",L39),"{{null_ristrict}}",M39))</f>
+        <f t="shared" ref="N39:N63" si="13">IF(B39="","",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(COLUMN_DEF,"{{column_id}}",B39),"{{type}}",L39),"{{null_ristrict}}",M39))</f>
         <v/>
       </c>
       <c r="O39" s="10" t="str">
@@ -3767,9 +3764,9 @@
       <c r="E40" s="38"/>
       <c r="F40" s="39"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="58"/>
       <c r="L40" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3827,9 +3824,9 @@
       <c r="E41" s="38"/>
       <c r="F41" s="39"/>
       <c r="G41" s="40"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
       <c r="L41" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3887,9 +3884,9 @@
       <c r="E42" s="38"/>
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
       <c r="L42" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3947,9 +3944,9 @@
       <c r="E43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
       <c r="L43" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4007,9 +4004,9 @@
       <c r="E44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
       <c r="L44" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4067,9 +4064,9 @@
       <c r="E45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
       <c r="L45" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4127,9 +4124,9 @@
       <c r="E46" s="38"/>
       <c r="F46" s="39"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
       <c r="L46" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4187,9 +4184,9 @@
       <c r="E47" s="38"/>
       <c r="F47" s="39"/>
       <c r="G47" s="40"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
       <c r="L47" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4247,9 +4244,9 @@
       <c r="E48" s="38"/>
       <c r="F48" s="39"/>
       <c r="G48" s="40"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
       <c r="L48" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4307,9 +4304,9 @@
       <c r="E49" s="38"/>
       <c r="F49" s="39"/>
       <c r="G49" s="40"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
       <c r="L49" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4367,9 +4364,9 @@
       <c r="E50" s="38"/>
       <c r="F50" s="39"/>
       <c r="G50" s="40"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="58"/>
       <c r="L50" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4427,9 +4424,9 @@
       <c r="E51" s="38"/>
       <c r="F51" s="39"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="58"/>
       <c r="L51" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4487,9 +4484,9 @@
       <c r="E52" s="38"/>
       <c r="F52" s="39"/>
       <c r="G52" s="40"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58"/>
       <c r="L52" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4547,9 +4544,9 @@
       <c r="E53" s="38"/>
       <c r="F53" s="39"/>
       <c r="G53" s="40"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
       <c r="L53" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4607,9 +4604,9 @@
       <c r="E54" s="38"/>
       <c r="F54" s="39"/>
       <c r="G54" s="40"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="58"/>
       <c r="L54" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4667,9 +4664,9 @@
       <c r="E55" s="38"/>
       <c r="F55" s="39"/>
       <c r="G55" s="40"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
       <c r="L55" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4727,9 +4724,9 @@
       <c r="E56" s="38"/>
       <c r="F56" s="39"/>
       <c r="G56" s="40"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="58"/>
       <c r="L56" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4787,9 +4784,9 @@
       <c r="E57" s="38"/>
       <c r="F57" s="39"/>
       <c r="G57" s="40"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
       <c r="L57" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4847,9 +4844,9 @@
       <c r="E58" s="38"/>
       <c r="F58" s="39"/>
       <c r="G58" s="40"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="58"/>
       <c r="L58" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4907,9 +4904,9 @@
       <c r="E59" s="38"/>
       <c r="F59" s="39"/>
       <c r="G59" s="40"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
       <c r="L59" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4967,9 +4964,9 @@
       <c r="E60" s="38"/>
       <c r="F60" s="39"/>
       <c r="G60" s="40"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="58"/>
       <c r="L60" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5027,9 +5024,9 @@
       <c r="E61" s="38"/>
       <c r="F61" s="39"/>
       <c r="G61" s="40"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
       <c r="L61" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5087,9 +5084,9 @@
       <c r="E62" s="38"/>
       <c r="F62" s="39"/>
       <c r="G62" s="40"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="58"/>
       <c r="L62" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5147,9 +5144,9 @@
       <c r="E63" s="44"/>
       <c r="F63" s="45"/>
       <c r="G63" s="46"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="61"/>
       <c r="L63" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5218,9 +5215,38 @@
         <f ca="1">CREATE_TABLE_COMMAND&amp;N64&amp;P65&amp;" )"</f>
         <v>CREATE TABLE Jobs (  id serial NOT NULL ,  seq_id numeric NOT NULL ,  job_name varchar(2000) NOT NULL ,  contents text  ,  sites varchar(2000)  ,  durings varchar(2000)  ,  price varchar(2000)  ,  industry varchar(2000)  ,  skill_required varchar(2000)  ,  skill_recommended varchar(2000)  ,  environment varchar(2000)  ,  age varchar(2000)  ,  can_accept_foreigner varchar(2000)  ,  required_numbers varchar(2000)  ,  counts_for_interview varchar(2000)  ,  working_time varchar(2000)  ,  average_work_hours varchar(2000)  ,  organization varchar(2000)  ,  commercial_flow varchar(2000)  ,  payment_site varchar(2000)  ,  settlement_to_overhours varchar(2000)  ,  note text  ,  file_name varchar(2000) NOT NULL ,  del_flag varchar(6)  ,  created_date timestamp NOT NULL ,  created_user_id varchar(20) NOT NULL ,  updated_date timestamp  ,  updated_user_id varchar(20)  ,  deleted_date timestamp  ,  deleteed_user_id varchar(20)  ,PRIMARY KEY(id) )</v>
       </c>
-      <c r="O65" s="51" t="str">
-        <f ca="1">O64</f>
-        <v>COMMENT ON COLUMN Jobs.seq_id IS '内部ID' ;COMMENT ON COLUMN Jobs.job_name IS '案件名' ;COMMENT ON COLUMN Jobs.contents IS '案件概要' ;COMMENT ON COLUMN Jobs.sites IS '勤務地' ;COMMENT ON COLUMN Jobs.durings IS '作業期間' ;COMMENT ON COLUMN Jobs.price IS '単価' ;COMMENT ON COLUMN Jobs.industry IS '業界' ;COMMENT ON COLUMN Jobs.skill_required IS 'スキル（必須条件）' ;COMMENT ON COLUMN Jobs.skill_recommended IS 'スキル（推奨条件）' ;COMMENT ON COLUMN Jobs.environment IS '開発環境' ;COMMENT ON COLUMN Jobs.age IS '年齢制限' ;COMMENT ON COLUMN Jobs.can_accept_foreigner IS '外国籍可否' ;COMMENT ON COLUMN Jobs.required_numbers IS '募集人員' ;COMMENT ON COLUMN Jobs.counts_for_interview IS '面談回数' ;COMMENT ON COLUMN Jobs.working_time IS '就業時間' ;COMMENT ON COLUMN Jobs.average_work_hours IS '平均稼働時間' ;COMMENT ON COLUMN Jobs.organization IS '体制' ;COMMENT ON COLUMN Jobs.commercial_flow IS '商流' ;COMMENT ON COLUMN Jobs.payment_site IS '支払サイト' ;COMMENT ON COLUMN Jobs.settlement_to_overhours IS '清算' ;COMMENT ON COLUMN Jobs.note IS '備考' ;COMMENT ON COLUMN Jobs.file_name IS 'メールデータ・ファイル名' ;COMMENT ON COLUMN Jobs.del_flag IS '削除フラグ' ;COMMENT ON COLUMN Jobs.created_date IS '作成日' ;COMMENT ON COLUMN Jobs.created_user_id IS '作成者' ;COMMENT ON COLUMN Jobs.updated_date IS '更新日' ;COMMENT ON COLUMN Jobs.updated_user_id IS '更新者' ;COMMENT ON COLUMN Jobs.deleted_date IS '削除日' ;COMMENT ON COLUMN Jobs.deleteed_user_id IS '削除者' ;</v>
+      <c r="O65" s="49" t="str">
+        <f ca="1">CONCATENATE(O8,CHAR(10),O9,CHAR(10),O10,CHAR(10),O11,CHAR(10),O12,CHAR(10),O13,CHAR(10),O14,CHAR(10),O15,CHAR(10),O16,CHAR(10),O17,CHAR(10),O18,CHAR(10),O19,CHAR(10),O20,CHAR(10),O21,CHAR(10),O22,CHAR(10),O23,CHAR(10),O24,CHAR(10),O25,CHAR(10),O26,CHAR(10),O27,CHAR(10),O28,CHAR(10),O29,CHAR(10),O30,CHAR(10),O31,CHAR(10),O32,CHAR(10),O33,CHAR(10),O34,CHAR(10),O35,CHAR(10),O36,CHAR(10),O37,CHAR(10),O38,CHAR(10),O39,CHAR(10),O40,CHAR(10),O41,CHAR(10),O42,CHAR(10),O43,CHAR(10),O44,CHAR(10),O45,CHAR(10),O46,CHAR(10),O47,CHAR(10),O48,CHAR(10),O49,CHAR(10),O50,CHAR(10),O51,CHAR(10),O52,CHAR(10),O53,CHAR(10),O54,CHAR(10),O55,CHAR(10),O56,CHAR(10),O57,CHAR(10),O58,CHAR(10),O59,CHAR(10),O60,CHAR(10),O61,CHAR(10),O62,CHAR(10),O63)</f>
+        <v xml:space="preserve">COMMENT ON COLUMN Jobs.seq_id IS '内部ID' ;
+COMMENT ON COLUMN Jobs.job_name IS '案件名' ;
+COMMENT ON COLUMN Jobs.contents IS '案件概要' ;
+COMMENT ON COLUMN Jobs.sites IS '勤務地' ;
+COMMENT ON COLUMN Jobs.durings IS '作業期間' ;
+COMMENT ON COLUMN Jobs.price IS '単価' ;
+COMMENT ON COLUMN Jobs.industry IS '業界' ;
+COMMENT ON COLUMN Jobs.skill_required IS 'スキル（必須条件）' ;
+COMMENT ON COLUMN Jobs.skill_recommended IS 'スキル（推奨条件）' ;
+COMMENT ON COLUMN Jobs.environment IS '開発環境' ;
+COMMENT ON COLUMN Jobs.age IS '年齢制限' ;
+COMMENT ON COLUMN Jobs.can_accept_foreigner IS '外国籍可否' ;
+COMMENT ON COLUMN Jobs.required_numbers IS '募集人員' ;
+COMMENT ON COLUMN Jobs.counts_for_interview IS '面談回数' ;
+COMMENT ON COLUMN Jobs.working_time IS '就業時間' ;
+COMMENT ON COLUMN Jobs.average_work_hours IS '平均稼働時間' ;
+COMMENT ON COLUMN Jobs.organization IS '体制' ;
+COMMENT ON COLUMN Jobs.commercial_flow IS '商流' ;
+COMMENT ON COLUMN Jobs.payment_site IS '支払サイト' ;
+COMMENT ON COLUMN Jobs.settlement_to_overhours IS '清算' ;
+COMMENT ON COLUMN Jobs.note IS '備考' ;
+COMMENT ON COLUMN Jobs.file_name IS 'メールデータ・ファイル名' ;
+COMMENT ON COLUMN Jobs.del_flag IS '削除フラグ' ;
+COMMENT ON COLUMN Jobs.created_date IS '作成日' ;
+COMMENT ON COLUMN Jobs.created_user_id IS '作成者' ;
+COMMENT ON COLUMN Jobs.updated_date IS '更新日' ;
+COMMENT ON COLUMN Jobs.updated_user_id IS '更新者' ;
+COMMENT ON COLUMN Jobs.deleted_date IS '削除日' ;
+COMMENT ON COLUMN Jobs.deleteed_user_id IS '削除者' ;
+</v>
       </c>
       <c r="P65" s="10" t="str">
         <f>LEFT(P64,LEN(P64)-1)</f>
@@ -5264,34 +5290,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
     <mergeCell ref="H57:J57"/>
@@ -5301,6 +5299,34 @@
     <mergeCell ref="H60:J60"/>
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
